--- a/biology/Zoologie/Bistonina_olbia/Bistonina_olbia.xlsx
+++ b/biology/Zoologie/Bistonina_olbia/Bistonina_olbia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bistonina olbia est un papillon de la famille des Lycaenidae, de la sous-famille des Theclinae et du genre Bistonina.
 </t>
@@ -511,9 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bistonina olbia a été décrit par William Chapman Hewitson en 1867 sous le nom de Thecla olbia[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bistonina olbia a été décrit par William Chapman Hewitson en 1867 sous le nom de Thecla olbia.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Bistonina olbia est un petit papillon avec de fines queues à chaque aile postérieure.
 Le dessus est aux ailes antérieures noir centré d'une tache rouge proche du milieu du bord costal, avec une plage bleu outremer le long du bord interne et aux ailes postérieures bleu outremer avec une bande noire le long du bord costal et une bande beige le long du bord interne.
@@ -572,12 +588,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bistonina olbia  réside au Brésil et en Guyane.
+Sur les autres projets Wikimedia :
+Bistonina olbia, sur Wikimedia CommonsBistonina olbia, sur Wikispecies
+</t>
         </is>
       </c>
     </row>
@@ -607,12 +628,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bistonina olbia  réside au Brésil et en Guyane[1],[2],[3].
-Sur les autres projets Wikimedia :
-Bistonina olbia, sur Wikimedia CommonsBistonina olbia, sur Wikispecies
-Biotope
-Protection
-Pas de statut de protection particulier.
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
